--- a/Source/Excel/TAF2_PR-205a/PR-205a_Constraint.xlsx
+++ b/Source/Excel/TAF2_PR-205a/PR-205a_Constraint.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -43,12 +43,15 @@
   <si>
     <t>111101</t>
   </si>
+  <si>
+    <t>* New</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +64,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -108,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,6 +134,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,6 +783,67 @@
         <v>2</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
